--- a/Puntajes.xlsx
+++ b/Puntajes.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10254587</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -446,31 +446,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14523678</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70989898</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.625</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>78965412</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Puntajes.xlsx
+++ b/Puntajes.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10254587</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/Puntajes.xlsx
+++ b/Puntajes.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Puntajes.xlsx
+++ b/Puntajes.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
